--- a/ArquiProjecto/Phase3/ControlStateDiagram.xlsx
+++ b/ArquiProjecto/Phase3/ControlStateDiagram.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedro\Desktop\Arqui\gitrepository\armverilogimplementation\ArquiProjecto\Phase3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hecto\Documents\armverilogimplementation\ArquiProjecto\Phase3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1033,7 +1033,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1285,6 +1285,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1295,9 +1298,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1585,8 +1585,8 @@
   </sheetPr>
   <dimension ref="A1:AS212"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="P108" sqref="P108"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1625,31 +1625,31 @@
       <c r="A2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
       <c r="F2" s="20"/>
       <c r="G2" s="20"/>
       <c r="H2" s="20"/>
-      <c r="I2" s="47" t="s">
+      <c r="I2" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47"/>
-      <c r="O2" s="47"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
       <c r="P2" s="44"/>
       <c r="Q2" s="13"/>
-      <c r="R2" s="46" t="s">
+      <c r="R2" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="S2" s="46"/>
-      <c r="T2" s="46"/>
+      <c r="S2" s="47"/>
+      <c r="T2" s="47"/>
       <c r="U2" s="13"/>
       <c r="V2" s="7" t="s">
         <v>64</v>
@@ -1662,26 +1662,26 @@
         <v>66</v>
       </c>
       <c r="AA2" s="13"/>
-      <c r="AB2" s="46" t="s">
+      <c r="AB2" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="AC2" s="46"/>
+      <c r="AC2" s="47"/>
       <c r="AD2" s="13"/>
-      <c r="AE2" s="47" t="s">
+      <c r="AE2" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="AF2" s="47"/>
+      <c r="AF2" s="48"/>
       <c r="AG2" s="23"/>
       <c r="AH2" s="18" t="s">
         <v>69</v>
       </c>
       <c r="AI2" s="13"/>
-      <c r="AJ2" s="47" t="s">
+      <c r="AJ2" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="AK2" s="47"/>
-      <c r="AL2" s="47"/>
-      <c r="AM2" s="47"/>
+      <c r="AK2" s="48"/>
+      <c r="AL2" s="48"/>
+      <c r="AM2" s="48"/>
     </row>
     <row r="3" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -1725,7 +1725,7 @@
       <c r="O3" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="P3" s="50" t="s">
+      <c r="P3" s="46" t="s">
         <v>196</v>
       </c>
       <c r="Q3" s="13"/>
@@ -1754,7 +1754,7 @@
       <c r="AB3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="AC3" s="50" t="s">
+      <c r="AC3" s="46" t="s">
         <v>198</v>
       </c>
       <c r="AD3" s="13"/>
@@ -2349,24 +2349,24 @@
       <c r="A11" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="48"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="48"/>
-      <c r="L11" s="48"/>
-      <c r="M11" s="48"/>
-      <c r="N11" s="48"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="49"/>
+      <c r="M11" s="49"/>
+      <c r="N11" s="49"/>
       <c r="O11" s="13"/>
       <c r="P11" s="45"/>
       <c r="Q11" s="13"/>
-      <c r="R11" s="48"/>
-      <c r="S11" s="48"/>
+      <c r="R11" s="49"/>
+      <c r="S11" s="49"/>
       <c r="T11" s="13"/>
       <c r="U11" s="13"/>
       <c r="V11" s="8"/>
@@ -2377,45 +2377,45 @@
       <c r="AB11" s="13"/>
       <c r="AC11" s="45"/>
       <c r="AD11" s="13"/>
-      <c r="AE11" s="48"/>
-      <c r="AF11" s="48"/>
+      <c r="AE11" s="49"/>
+      <c r="AF11" s="49"/>
       <c r="AG11" s="23"/>
       <c r="AH11" s="13"/>
       <c r="AI11" s="13"/>
       <c r="AJ11" s="13"/>
-      <c r="AK11" s="48"/>
-      <c r="AL11" s="48"/>
-      <c r="AM11" s="48"/>
+      <c r="AK11" s="49"/>
+      <c r="AL11" s="49"/>
+      <c r="AM11" s="49"/>
     </row>
     <row r="12" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B12" s="46" t="s">
+      <c r="B12" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
       <c r="F12" s="20"/>
       <c r="G12" s="20"/>
       <c r="H12" s="20"/>
-      <c r="I12" s="47" t="s">
+      <c r="I12" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="J12" s="47"/>
-      <c r="K12" s="47"/>
-      <c r="L12" s="47"/>
-      <c r="M12" s="47"/>
-      <c r="N12" s="47"/>
-      <c r="O12" s="47"/>
+      <c r="J12" s="48"/>
+      <c r="K12" s="48"/>
+      <c r="L12" s="48"/>
+      <c r="M12" s="48"/>
+      <c r="N12" s="48"/>
+      <c r="O12" s="48"/>
       <c r="P12" s="44"/>
       <c r="Q12" s="13"/>
-      <c r="R12" s="46" t="s">
+      <c r="R12" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="S12" s="46"/>
-      <c r="T12" s="46"/>
+      <c r="S12" s="47"/>
+      <c r="T12" s="47"/>
       <c r="U12" s="13"/>
       <c r="V12" s="7" t="s">
         <v>64</v>
@@ -2433,21 +2433,21 @@
       </c>
       <c r="AC12" s="43"/>
       <c r="AD12" s="13"/>
-      <c r="AE12" s="47" t="s">
+      <c r="AE12" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="AF12" s="47"/>
+      <c r="AF12" s="48"/>
       <c r="AG12" s="23"/>
       <c r="AH12" s="18" t="s">
         <v>69</v>
       </c>
       <c r="AI12" s="13"/>
-      <c r="AJ12" s="47" t="s">
+      <c r="AJ12" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="AK12" s="47"/>
-      <c r="AL12" s="47"/>
-      <c r="AM12" s="47"/>
+      <c r="AK12" s="48"/>
+      <c r="AL12" s="48"/>
+      <c r="AM12" s="48"/>
     </row>
     <row r="13" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
@@ -2491,7 +2491,7 @@
       <c r="O13" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="P13" s="50" t="s">
+      <c r="P13" s="46" t="s">
         <v>196</v>
       </c>
       <c r="Q13" s="45"/>
@@ -2520,7 +2520,7 @@
       <c r="AB13" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="AC13" s="50" t="s">
+      <c r="AC13" s="46" t="s">
         <v>198</v>
       </c>
       <c r="AD13" s="45"/>
@@ -5633,42 +5633,42 @@
       <c r="A47" s="16"/>
       <c r="B47" s="13"/>
       <c r="C47" s="38"/>
-      <c r="D47" s="49" t="s">
+      <c r="D47" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="E47" s="49"/>
-      <c r="F47" s="49"/>
-      <c r="G47" s="49"/>
-      <c r="H47" s="49"/>
-      <c r="I47" s="49"/>
-      <c r="J47" s="49"/>
-      <c r="K47" s="49"/>
-      <c r="L47" s="49"/>
-      <c r="M47" s="49"/>
-      <c r="N47" s="49"/>
-      <c r="O47" s="49"/>
-      <c r="P47" s="49"/>
-      <c r="Q47" s="49"/>
-      <c r="R47" s="49"/>
-      <c r="S47" s="49"/>
-      <c r="T47" s="49"/>
-      <c r="U47" s="49"/>
-      <c r="V47" s="49"/>
-      <c r="W47" s="49"/>
-      <c r="X47" s="49"/>
-      <c r="Y47" s="49"/>
-      <c r="Z47" s="49"/>
-      <c r="AA47" s="49"/>
-      <c r="AB47" s="49"/>
-      <c r="AC47" s="49"/>
-      <c r="AD47" s="49"/>
-      <c r="AE47" s="49"/>
-      <c r="AF47" s="49"/>
-      <c r="AG47" s="49"/>
-      <c r="AH47" s="49"/>
-      <c r="AI47" s="49"/>
-      <c r="AJ47" s="49"/>
-      <c r="AK47" s="49"/>
+      <c r="E47" s="50"/>
+      <c r="F47" s="50"/>
+      <c r="G47" s="50"/>
+      <c r="H47" s="50"/>
+      <c r="I47" s="50"/>
+      <c r="J47" s="50"/>
+      <c r="K47" s="50"/>
+      <c r="L47" s="50"/>
+      <c r="M47" s="50"/>
+      <c r="N47" s="50"/>
+      <c r="O47" s="50"/>
+      <c r="P47" s="50"/>
+      <c r="Q47" s="50"/>
+      <c r="R47" s="50"/>
+      <c r="S47" s="50"/>
+      <c r="T47" s="50"/>
+      <c r="U47" s="50"/>
+      <c r="V47" s="50"/>
+      <c r="W47" s="50"/>
+      <c r="X47" s="50"/>
+      <c r="Y47" s="50"/>
+      <c r="Z47" s="50"/>
+      <c r="AA47" s="50"/>
+      <c r="AB47" s="50"/>
+      <c r="AC47" s="50"/>
+      <c r="AD47" s="50"/>
+      <c r="AE47" s="50"/>
+      <c r="AF47" s="50"/>
+      <c r="AG47" s="50"/>
+      <c r="AH47" s="50"/>
+      <c r="AI47" s="50"/>
+      <c r="AJ47" s="50"/>
+      <c r="AK47" s="50"/>
       <c r="AL47" s="13"/>
       <c r="AM47" s="13"/>
       <c r="AN47"/>
@@ -5724,31 +5724,31 @@
       <c r="A49" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B49" s="46" t="s">
+      <c r="B49" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="C49" s="46"/>
-      <c r="D49" s="46"/>
-      <c r="E49" s="46"/>
+      <c r="C49" s="47"/>
+      <c r="D49" s="47"/>
+      <c r="E49" s="47"/>
       <c r="F49" s="20"/>
       <c r="G49" s="20"/>
       <c r="H49" s="20"/>
-      <c r="I49" s="47" t="s">
+      <c r="I49" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="J49" s="47"/>
-      <c r="K49" s="47"/>
-      <c r="L49" s="47"/>
-      <c r="M49" s="47"/>
-      <c r="N49" s="47"/>
-      <c r="O49" s="47"/>
+      <c r="J49" s="48"/>
+      <c r="K49" s="48"/>
+      <c r="L49" s="48"/>
+      <c r="M49" s="48"/>
+      <c r="N49" s="48"/>
+      <c r="O49" s="48"/>
       <c r="P49" s="44"/>
       <c r="Q49" s="13"/>
-      <c r="R49" s="46" t="s">
+      <c r="R49" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="S49" s="46"/>
-      <c r="T49" s="46"/>
+      <c r="S49" s="47"/>
+      <c r="T49" s="47"/>
       <c r="U49" s="13"/>
       <c r="V49" s="7" t="s">
         <v>64</v>
@@ -5761,26 +5761,26 @@
         <v>66</v>
       </c>
       <c r="AA49" s="13"/>
-      <c r="AB49" s="46" t="s">
+      <c r="AB49" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="AC49" s="46"/>
+      <c r="AC49" s="47"/>
       <c r="AD49" s="13"/>
-      <c r="AE49" s="47" t="s">
+      <c r="AE49" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="AF49" s="47"/>
+      <c r="AF49" s="48"/>
       <c r="AG49" s="23"/>
       <c r="AH49" s="18" t="s">
         <v>69</v>
       </c>
       <c r="AI49" s="13"/>
-      <c r="AJ49" s="47" t="s">
+      <c r="AJ49" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="AK49" s="47"/>
-      <c r="AL49" s="47"/>
-      <c r="AM49" s="47"/>
+      <c r="AK49" s="48"/>
+      <c r="AL49" s="48"/>
+      <c r="AM49" s="48"/>
     </row>
     <row r="50" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
@@ -5824,7 +5824,7 @@
       <c r="O50" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="P50" s="50" t="s">
+      <c r="P50" s="46" t="s">
         <v>196</v>
       </c>
       <c r="Q50" s="45"/>
@@ -5853,7 +5853,7 @@
       <c r="AB50" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="AC50" s="50" t="s">
+      <c r="AC50" s="46" t="s">
         <v>198</v>
       </c>
       <c r="AD50" s="45"/>
@@ -6156,7 +6156,7 @@
       <c r="O54" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="P54" s="50" t="s">
+      <c r="P54" s="46" t="s">
         <v>196</v>
       </c>
       <c r="Q54" s="45"/>
@@ -6185,7 +6185,7 @@
       <c r="AB54" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="AC54" s="50" t="s">
+      <c r="AC54" s="46" t="s">
         <v>198</v>
       </c>
       <c r="AD54" s="45"/>
@@ -6488,7 +6488,7 @@
       <c r="O58" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="P58" s="50" t="s">
+      <c r="P58" s="46" t="s">
         <v>196</v>
       </c>
       <c r="Q58" s="45"/>
@@ -6517,7 +6517,7 @@
       <c r="AB58" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="AC58" s="50" t="s">
+      <c r="AC58" s="46" t="s">
         <v>198</v>
       </c>
       <c r="AD58" s="45"/>
@@ -6820,7 +6820,7 @@
       <c r="O62" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="P62" s="50" t="s">
+      <c r="P62" s="46" t="s">
         <v>196</v>
       </c>
       <c r="Q62" s="45"/>
@@ -6849,7 +6849,7 @@
       <c r="AB62" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="AC62" s="50" t="s">
+      <c r="AC62" s="46" t="s">
         <v>198</v>
       </c>
       <c r="AD62" s="45"/>
@@ -7152,7 +7152,7 @@
       <c r="O66" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="P66" s="50" t="s">
+      <c r="P66" s="46" t="s">
         <v>196</v>
       </c>
       <c r="Q66" s="45"/>
@@ -7181,7 +7181,7 @@
       <c r="AB66" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="AC66" s="50" t="s">
+      <c r="AC66" s="46" t="s">
         <v>198</v>
       </c>
       <c r="AD66" s="45"/>
@@ -7674,7 +7674,7 @@
       <c r="O72" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="P72" s="50" t="s">
+      <c r="P72" s="46" t="s">
         <v>196</v>
       </c>
       <c r="Q72" s="45"/>
@@ -7703,7 +7703,7 @@
       <c r="AB72" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="AC72" s="50" t="s">
+      <c r="AC72" s="46" t="s">
         <v>198</v>
       </c>
       <c r="AD72" s="45"/>
@@ -8474,31 +8474,31 @@
       <c r="A82" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B82" s="46" t="s">
+      <c r="B82" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="C82" s="46"/>
-      <c r="D82" s="46"/>
-      <c r="E82" s="46"/>
+      <c r="C82" s="47"/>
+      <c r="D82" s="47"/>
+      <c r="E82" s="47"/>
       <c r="F82" s="20"/>
       <c r="G82" s="20"/>
       <c r="H82" s="20"/>
-      <c r="I82" s="47" t="s">
+      <c r="I82" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="J82" s="47"/>
-      <c r="K82" s="47"/>
-      <c r="L82" s="47"/>
-      <c r="M82" s="47"/>
-      <c r="N82" s="47"/>
-      <c r="O82" s="47"/>
+      <c r="J82" s="48"/>
+      <c r="K82" s="48"/>
+      <c r="L82" s="48"/>
+      <c r="M82" s="48"/>
+      <c r="N82" s="48"/>
+      <c r="O82" s="48"/>
       <c r="P82" s="44"/>
       <c r="Q82" s="13"/>
-      <c r="R82" s="46" t="s">
+      <c r="R82" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="S82" s="46"/>
-      <c r="T82" s="46"/>
+      <c r="S82" s="47"/>
+      <c r="T82" s="47"/>
       <c r="U82" s="13"/>
       <c r="V82" s="7" t="s">
         <v>64</v>
@@ -8516,21 +8516,21 @@
       </c>
       <c r="AC82" s="43"/>
       <c r="AD82" s="13"/>
-      <c r="AE82" s="47" t="s">
+      <c r="AE82" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="AF82" s="47"/>
+      <c r="AF82" s="48"/>
       <c r="AG82" s="23"/>
       <c r="AH82" s="18" t="s">
         <v>69</v>
       </c>
       <c r="AI82" s="13"/>
-      <c r="AJ82" s="47" t="s">
+      <c r="AJ82" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="AK82" s="47"/>
-      <c r="AL82" s="47"/>
-      <c r="AM82" s="47"/>
+      <c r="AK82" s="48"/>
+      <c r="AL82" s="48"/>
+      <c r="AM82" s="48"/>
     </row>
     <row r="83" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
@@ -8574,7 +8574,7 @@
       <c r="O83" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="P83" s="50" t="s">
+      <c r="P83" s="46" t="s">
         <v>196</v>
       </c>
       <c r="Q83" s="45"/>
@@ -8603,7 +8603,7 @@
       <c r="AB83" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="AC83" s="50" t="s">
+      <c r="AC83" s="46" t="s">
         <v>198</v>
       </c>
       <c r="AD83" s="45"/>
@@ -8906,7 +8906,7 @@
       <c r="O87" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="P87" s="50" t="s">
+      <c r="P87" s="46" t="s">
         <v>196</v>
       </c>
       <c r="Q87" s="45"/>
@@ -8935,7 +8935,7 @@
       <c r="AB87" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="AC87" s="50" t="s">
+      <c r="AC87" s="46" t="s">
         <v>198</v>
       </c>
       <c r="AD87" s="45"/>
@@ -9238,7 +9238,7 @@
       <c r="O91" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="P91" s="50" t="s">
+      <c r="P91" s="46" t="s">
         <v>196</v>
       </c>
       <c r="Q91" s="45"/>
@@ -9267,7 +9267,7 @@
       <c r="AB91" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="AC91" s="50" t="s">
+      <c r="AC91" s="46" t="s">
         <v>198</v>
       </c>
       <c r="AD91" s="45"/>
@@ -9570,7 +9570,7 @@
       <c r="O95" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="P95" s="50" t="s">
+      <c r="P95" s="46" t="s">
         <v>196</v>
       </c>
       <c r="Q95" s="45"/>
@@ -9599,7 +9599,7 @@
       <c r="AB95" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="AC95" s="50" t="s">
+      <c r="AC95" s="46" t="s">
         <v>198</v>
       </c>
       <c r="AD95" s="45"/>
@@ -9902,7 +9902,7 @@
       <c r="O99" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="P99" s="50" t="s">
+      <c r="P99" s="46" t="s">
         <v>196</v>
       </c>
       <c r="Q99" s="45"/>
@@ -9931,7 +9931,7 @@
       <c r="AB99" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="AC99" s="50" t="s">
+      <c r="AC99" s="46" t="s">
         <v>198</v>
       </c>
       <c r="AD99" s="45"/>
@@ -10424,7 +10424,7 @@
       <c r="O105" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="P105" s="50" t="s">
+      <c r="P105" s="46" t="s">
         <v>196</v>
       </c>
       <c r="Q105" s="45"/>
@@ -10453,7 +10453,7 @@
       <c r="AB105" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="AC105" s="50" t="s">
+      <c r="AC105" s="46" t="s">
         <v>198</v>
       </c>
       <c r="AD105" s="45"/>
@@ -11191,31 +11191,31 @@
       <c r="A114" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B114" s="46" t="s">
+      <c r="B114" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="C114" s="46"/>
-      <c r="D114" s="46"/>
-      <c r="E114" s="46"/>
+      <c r="C114" s="47"/>
+      <c r="D114" s="47"/>
+      <c r="E114" s="47"/>
       <c r="F114" s="20"/>
       <c r="G114" s="20"/>
       <c r="H114" s="20"/>
-      <c r="I114" s="47" t="s">
+      <c r="I114" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="J114" s="47"/>
-      <c r="K114" s="47"/>
-      <c r="L114" s="47"/>
-      <c r="M114" s="47"/>
-      <c r="N114" s="47"/>
-      <c r="O114" s="47"/>
+      <c r="J114" s="48"/>
+      <c r="K114" s="48"/>
+      <c r="L114" s="48"/>
+      <c r="M114" s="48"/>
+      <c r="N114" s="48"/>
+      <c r="O114" s="48"/>
       <c r="P114" s="44"/>
       <c r="Q114" s="13"/>
-      <c r="R114" s="46" t="s">
+      <c r="R114" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="S114" s="46"/>
-      <c r="T114" s="46"/>
+      <c r="S114" s="47"/>
+      <c r="T114" s="47"/>
       <c r="U114" s="13"/>
       <c r="V114" s="7" t="s">
         <v>64</v>
@@ -11233,21 +11233,21 @@
       </c>
       <c r="AC114" s="43"/>
       <c r="AD114" s="13"/>
-      <c r="AE114" s="47" t="s">
+      <c r="AE114" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="AF114" s="47"/>
+      <c r="AF114" s="48"/>
       <c r="AG114" s="23"/>
       <c r="AH114" s="18" t="s">
         <v>69</v>
       </c>
       <c r="AI114" s="13"/>
-      <c r="AJ114" s="47" t="s">
+      <c r="AJ114" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="AK114" s="47"/>
-      <c r="AL114" s="47"/>
-      <c r="AM114" s="47"/>
+      <c r="AK114" s="48"/>
+      <c r="AL114" s="48"/>
+      <c r="AM114" s="48"/>
     </row>
     <row r="115" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
@@ -11291,7 +11291,7 @@
       <c r="O115" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="P115" s="50" t="s">
+      <c r="P115" s="46" t="s">
         <v>196</v>
       </c>
       <c r="Q115" s="45"/>
@@ -11320,7 +11320,7 @@
       <c r="AB115" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="AC115" s="50" t="s">
+      <c r="AC115" s="46" t="s">
         <v>198</v>
       </c>
       <c r="AD115" s="45"/>
@@ -11623,7 +11623,7 @@
       <c r="O119" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="P119" s="50" t="s">
+      <c r="P119" s="46" t="s">
         <v>196</v>
       </c>
       <c r="Q119" s="45"/>
@@ -11652,7 +11652,7 @@
       <c r="AB119" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="AC119" s="50" t="s">
+      <c r="AC119" s="46" t="s">
         <v>198</v>
       </c>
       <c r="AD119" s="45"/>
@@ -11955,7 +11955,7 @@
       <c r="O123" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="P123" s="50" t="s">
+      <c r="P123" s="46" t="s">
         <v>196</v>
       </c>
       <c r="Q123" s="45"/>
@@ -11984,7 +11984,7 @@
       <c r="AB123" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="AC123" s="50" t="s">
+      <c r="AC123" s="46" t="s">
         <v>198</v>
       </c>
       <c r="AD123" s="45"/>
@@ -12670,31 +12670,31 @@
       <c r="A132" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B132" s="46" t="s">
+      <c r="B132" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="C132" s="46"/>
-      <c r="D132" s="46"/>
-      <c r="E132" s="46"/>
+      <c r="C132" s="47"/>
+      <c r="D132" s="47"/>
+      <c r="E132" s="47"/>
       <c r="F132" s="20"/>
       <c r="G132" s="20"/>
       <c r="H132" s="20"/>
-      <c r="I132" s="47" t="s">
+      <c r="I132" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="J132" s="47"/>
-      <c r="K132" s="47"/>
-      <c r="L132" s="47"/>
-      <c r="M132" s="47"/>
-      <c r="N132" s="47"/>
-      <c r="O132" s="47"/>
+      <c r="J132" s="48"/>
+      <c r="K132" s="48"/>
+      <c r="L132" s="48"/>
+      <c r="M132" s="48"/>
+      <c r="N132" s="48"/>
+      <c r="O132" s="48"/>
       <c r="P132" s="44"/>
       <c r="Q132" s="13"/>
-      <c r="R132" s="46" t="s">
+      <c r="R132" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="S132" s="46"/>
-      <c r="T132" s="46"/>
+      <c r="S132" s="47"/>
+      <c r="T132" s="47"/>
       <c r="U132" s="13"/>
       <c r="V132" s="7" t="s">
         <v>64</v>
@@ -12712,21 +12712,21 @@
       </c>
       <c r="AC132" s="43"/>
       <c r="AD132" s="13"/>
-      <c r="AE132" s="47" t="s">
+      <c r="AE132" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="AF132" s="47"/>
+      <c r="AF132" s="48"/>
       <c r="AG132" s="23"/>
       <c r="AH132" s="18" t="s">
         <v>69</v>
       </c>
       <c r="AI132" s="13"/>
-      <c r="AJ132" s="47" t="s">
+      <c r="AJ132" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="AK132" s="47"/>
-      <c r="AL132" s="47"/>
-      <c r="AM132" s="47"/>
+      <c r="AK132" s="48"/>
+      <c r="AL132" s="48"/>
+      <c r="AM132" s="48"/>
     </row>
     <row r="133" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
@@ -12770,7 +12770,7 @@
       <c r="O133" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="P133" s="50" t="s">
+      <c r="P133" s="46" t="s">
         <v>196</v>
       </c>
       <c r="Q133" s="45"/>
@@ -12799,7 +12799,7 @@
       <c r="AB133" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="AC133" s="50" t="s">
+      <c r="AC133" s="46" t="s">
         <v>198</v>
       </c>
       <c r="AD133" s="45"/>
@@ -13102,7 +13102,7 @@
       <c r="O137" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="P137" s="50" t="s">
+      <c r="P137" s="46" t="s">
         <v>196</v>
       </c>
       <c r="Q137" s="45"/>
@@ -13131,7 +13131,7 @@
       <c r="AB137" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="AC137" s="50" t="s">
+      <c r="AC137" s="46" t="s">
         <v>198</v>
       </c>
       <c r="AD137" s="45"/>
@@ -13434,7 +13434,7 @@
       <c r="O141" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="P141" s="50" t="s">
+      <c r="P141" s="46" t="s">
         <v>196</v>
       </c>
       <c r="Q141" s="45"/>
@@ -13463,7 +13463,7 @@
       <c r="AB141" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="AC141" s="50" t="s">
+      <c r="AC141" s="46" t="s">
         <v>198</v>
       </c>
       <c r="AD141" s="45"/>
@@ -14160,31 +14160,31 @@
       <c r="A149" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B149" s="46" t="s">
+      <c r="B149" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="C149" s="46"/>
-      <c r="D149" s="46"/>
-      <c r="E149" s="46"/>
+      <c r="C149" s="47"/>
+      <c r="D149" s="47"/>
+      <c r="E149" s="47"/>
       <c r="F149" s="20"/>
       <c r="G149" s="20"/>
       <c r="H149" s="20"/>
-      <c r="I149" s="47" t="s">
+      <c r="I149" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="J149" s="47"/>
-      <c r="K149" s="47"/>
-      <c r="L149" s="47"/>
-      <c r="M149" s="47"/>
-      <c r="N149" s="47"/>
-      <c r="O149" s="47"/>
+      <c r="J149" s="48"/>
+      <c r="K149" s="48"/>
+      <c r="L149" s="48"/>
+      <c r="M149" s="48"/>
+      <c r="N149" s="48"/>
+      <c r="O149" s="48"/>
       <c r="P149" s="44"/>
       <c r="Q149" s="13"/>
-      <c r="R149" s="46" t="s">
+      <c r="R149" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="S149" s="46"/>
-      <c r="T149" s="46"/>
+      <c r="S149" s="47"/>
+      <c r="T149" s="47"/>
       <c r="U149" s="13"/>
       <c r="V149" s="7" t="s">
         <v>64</v>
@@ -14202,21 +14202,21 @@
       </c>
       <c r="AC149" s="43"/>
       <c r="AD149" s="13"/>
-      <c r="AE149" s="47" t="s">
+      <c r="AE149" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="AF149" s="47"/>
+      <c r="AF149" s="48"/>
       <c r="AG149" s="23"/>
       <c r="AH149" s="18" t="s">
         <v>69</v>
       </c>
       <c r="AI149" s="13"/>
-      <c r="AJ149" s="47" t="s">
+      <c r="AJ149" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="AK149" s="47"/>
-      <c r="AL149" s="47"/>
-      <c r="AM149" s="47"/>
+      <c r="AK149" s="48"/>
+      <c r="AL149" s="48"/>
+      <c r="AM149" s="48"/>
     </row>
     <row r="150" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
@@ -14260,7 +14260,7 @@
       <c r="O150" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="P150" s="50" t="s">
+      <c r="P150" s="46" t="s">
         <v>196</v>
       </c>
       <c r="Q150" s="45"/>
@@ -14289,7 +14289,7 @@
       <c r="AB150" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="AC150" s="50" t="s">
+      <c r="AC150" s="46" t="s">
         <v>198</v>
       </c>
       <c r="AD150" s="45"/>
@@ -14457,31 +14457,31 @@
       <c r="A153" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B153" s="46" t="s">
+      <c r="B153" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="C153" s="46"/>
-      <c r="D153" s="46"/>
-      <c r="E153" s="46"/>
+      <c r="C153" s="47"/>
+      <c r="D153" s="47"/>
+      <c r="E153" s="47"/>
       <c r="F153" s="20"/>
       <c r="G153" s="20"/>
       <c r="H153" s="20"/>
-      <c r="I153" s="47" t="s">
+      <c r="I153" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="J153" s="47"/>
-      <c r="K153" s="47"/>
-      <c r="L153" s="47"/>
-      <c r="M153" s="47"/>
-      <c r="N153" s="47"/>
-      <c r="O153" s="47"/>
+      <c r="J153" s="48"/>
+      <c r="K153" s="48"/>
+      <c r="L153" s="48"/>
+      <c r="M153" s="48"/>
+      <c r="N153" s="48"/>
+      <c r="O153" s="48"/>
       <c r="P153" s="44"/>
       <c r="Q153" s="13"/>
-      <c r="R153" s="46" t="s">
+      <c r="R153" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="S153" s="46"/>
-      <c r="T153" s="46"/>
+      <c r="S153" s="47"/>
+      <c r="T153" s="47"/>
       <c r="U153" s="13"/>
       <c r="V153" s="7" t="s">
         <v>64</v>
@@ -14499,21 +14499,21 @@
       </c>
       <c r="AC153" s="43"/>
       <c r="AD153" s="13"/>
-      <c r="AE153" s="47" t="s">
+      <c r="AE153" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="AF153" s="47"/>
+      <c r="AF153" s="48"/>
       <c r="AG153" s="23"/>
       <c r="AH153" s="18" t="s">
         <v>69</v>
       </c>
       <c r="AI153" s="13"/>
-      <c r="AJ153" s="47" t="s">
+      <c r="AJ153" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="AK153" s="47"/>
-      <c r="AL153" s="47"/>
-      <c r="AM153" s="47"/>
+      <c r="AK153" s="48"/>
+      <c r="AL153" s="48"/>
+      <c r="AM153" s="48"/>
     </row>
     <row r="154" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
@@ -14557,7 +14557,7 @@
       <c r="O154" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="P154" s="50" t="s">
+      <c r="P154" s="46" t="s">
         <v>196</v>
       </c>
       <c r="Q154" s="45"/>
@@ -14586,7 +14586,7 @@
       <c r="AB154" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="AC154" s="50" t="s">
+      <c r="AC154" s="46" t="s">
         <v>198</v>
       </c>
       <c r="AD154" s="45"/>
@@ -14753,31 +14753,31 @@
       <c r="A157" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B157" s="46" t="s">
+      <c r="B157" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="C157" s="46"/>
-      <c r="D157" s="46"/>
-      <c r="E157" s="46"/>
+      <c r="C157" s="47"/>
+      <c r="D157" s="47"/>
+      <c r="E157" s="47"/>
       <c r="F157" s="20"/>
       <c r="G157" s="20"/>
       <c r="H157" s="20"/>
-      <c r="I157" s="47" t="s">
+      <c r="I157" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="J157" s="47"/>
-      <c r="K157" s="47"/>
-      <c r="L157" s="47"/>
-      <c r="M157" s="47"/>
-      <c r="N157" s="47"/>
-      <c r="O157" s="47"/>
+      <c r="J157" s="48"/>
+      <c r="K157" s="48"/>
+      <c r="L157" s="48"/>
+      <c r="M157" s="48"/>
+      <c r="N157" s="48"/>
+      <c r="O157" s="48"/>
       <c r="P157" s="44"/>
       <c r="Q157" s="13"/>
-      <c r="R157" s="46" t="s">
+      <c r="R157" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="S157" s="46"/>
-      <c r="T157" s="46"/>
+      <c r="S157" s="47"/>
+      <c r="T157" s="47"/>
       <c r="U157" s="13"/>
       <c r="V157" s="7" t="s">
         <v>64</v>
@@ -14795,21 +14795,21 @@
       </c>
       <c r="AC157" s="43"/>
       <c r="AD157" s="13"/>
-      <c r="AE157" s="47" t="s">
+      <c r="AE157" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="AF157" s="47"/>
+      <c r="AF157" s="48"/>
       <c r="AG157" s="23"/>
       <c r="AH157" s="18" t="s">
         <v>69</v>
       </c>
       <c r="AI157" s="13"/>
-      <c r="AJ157" s="47" t="s">
+      <c r="AJ157" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="AK157" s="47"/>
-      <c r="AL157" s="47"/>
-      <c r="AM157" s="47"/>
+      <c r="AK157" s="48"/>
+      <c r="AL157" s="48"/>
+      <c r="AM157" s="48"/>
     </row>
     <row r="158" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
@@ -14853,7 +14853,7 @@
       <c r="O158" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="P158" s="50" t="s">
+      <c r="P158" s="46" t="s">
         <v>196</v>
       </c>
       <c r="Q158" s="45"/>
@@ -14882,7 +14882,7 @@
       <c r="AB158" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="AC158" s="50" t="s">
+      <c r="AC158" s="46" t="s">
         <v>198</v>
       </c>
       <c r="AD158" s="45"/>
@@ -14912,7 +14912,7 @@
     </row>
     <row r="159" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A159" s="16">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B159" s="45">
         <v>10</v>
@@ -15007,7 +15007,7 @@
     </row>
     <row r="160" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A160" s="6">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B160" s="33" t="s">
         <v>28</v>
@@ -15104,31 +15104,31 @@
       <c r="A161" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B161" s="46" t="s">
+      <c r="B161" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="C161" s="46"/>
-      <c r="D161" s="46"/>
-      <c r="E161" s="46"/>
+      <c r="C161" s="47"/>
+      <c r="D161" s="47"/>
+      <c r="E161" s="47"/>
       <c r="F161" s="20"/>
       <c r="G161" s="20"/>
       <c r="H161" s="20"/>
-      <c r="I161" s="47" t="s">
+      <c r="I161" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="J161" s="47"/>
-      <c r="K161" s="47"/>
-      <c r="L161" s="47"/>
-      <c r="M161" s="47"/>
-      <c r="N161" s="47"/>
-      <c r="O161" s="47"/>
+      <c r="J161" s="48"/>
+      <c r="K161" s="48"/>
+      <c r="L161" s="48"/>
+      <c r="M161" s="48"/>
+      <c r="N161" s="48"/>
+      <c r="O161" s="48"/>
       <c r="P161" s="44"/>
       <c r="Q161" s="13"/>
-      <c r="R161" s="46" t="s">
+      <c r="R161" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="S161" s="46"/>
-      <c r="T161" s="46"/>
+      <c r="S161" s="47"/>
+      <c r="T161" s="47"/>
       <c r="U161" s="13"/>
       <c r="V161" s="7" t="s">
         <v>64</v>
@@ -15146,21 +15146,21 @@
       </c>
       <c r="AC161" s="43"/>
       <c r="AD161" s="13"/>
-      <c r="AE161" s="47" t="s">
+      <c r="AE161" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="AF161" s="47"/>
+      <c r="AF161" s="48"/>
       <c r="AG161" s="23"/>
       <c r="AH161" s="18" t="s">
         <v>69</v>
       </c>
       <c r="AI161" s="13"/>
-      <c r="AJ161" s="47" t="s">
+      <c r="AJ161" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="AK161" s="47"/>
-      <c r="AL161" s="47"/>
-      <c r="AM161" s="47"/>
+      <c r="AK161" s="48"/>
+      <c r="AL161" s="48"/>
+      <c r="AM161" s="48"/>
     </row>
     <row r="162" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
@@ -15204,7 +15204,7 @@
       <c r="O162" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="P162" s="50" t="s">
+      <c r="P162" s="46" t="s">
         <v>196</v>
       </c>
       <c r="Q162" s="45"/>
@@ -15233,7 +15233,7 @@
       <c r="AB162" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="AC162" s="50" t="s">
+      <c r="AC162" s="46" t="s">
         <v>198</v>
       </c>
       <c r="AD162" s="45"/>
@@ -15599,17 +15599,37 @@
     </row>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="B149:E149"/>
-    <mergeCell ref="B153:E153"/>
-    <mergeCell ref="I82:O82"/>
-    <mergeCell ref="I114:O114"/>
-    <mergeCell ref="I132:O132"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="I11:N11"/>
-    <mergeCell ref="R11:S11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="I12:O12"/>
+    <mergeCell ref="B161:E161"/>
+    <mergeCell ref="AE161:AF161"/>
+    <mergeCell ref="AJ161:AM161"/>
+    <mergeCell ref="I161:O161"/>
+    <mergeCell ref="R161:T161"/>
+    <mergeCell ref="B157:E157"/>
+    <mergeCell ref="AE157:AF157"/>
+    <mergeCell ref="AJ157:AM157"/>
+    <mergeCell ref="I157:O157"/>
+    <mergeCell ref="R157:T157"/>
+    <mergeCell ref="AJ12:AM12"/>
+    <mergeCell ref="AJ49:AM49"/>
+    <mergeCell ref="AK11:AM11"/>
+    <mergeCell ref="AE114:AF114"/>
+    <mergeCell ref="R149:T149"/>
+    <mergeCell ref="R12:T12"/>
+    <mergeCell ref="R49:T49"/>
+    <mergeCell ref="AE12:AF12"/>
+    <mergeCell ref="AJ132:AM132"/>
+    <mergeCell ref="AE132:AF132"/>
+    <mergeCell ref="AE82:AF82"/>
+    <mergeCell ref="R82:T82"/>
+    <mergeCell ref="R114:T114"/>
+    <mergeCell ref="R132:T132"/>
+    <mergeCell ref="AB49:AC49"/>
+    <mergeCell ref="AJ2:AM2"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="I2:O2"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="AE11:AF11"/>
+    <mergeCell ref="AB2:AC2"/>
     <mergeCell ref="AE153:AF153"/>
     <mergeCell ref="D47:AK47"/>
     <mergeCell ref="AE49:AF49"/>
@@ -15626,37 +15646,17 @@
     <mergeCell ref="AJ82:AM82"/>
     <mergeCell ref="B114:E114"/>
     <mergeCell ref="AJ114:AM114"/>
-    <mergeCell ref="AJ2:AM2"/>
-    <mergeCell ref="R2:T2"/>
-    <mergeCell ref="I2:O2"/>
-    <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="AE11:AF11"/>
-    <mergeCell ref="AB2:AC2"/>
-    <mergeCell ref="AJ12:AM12"/>
-    <mergeCell ref="AJ49:AM49"/>
-    <mergeCell ref="AK11:AM11"/>
-    <mergeCell ref="AE114:AF114"/>
-    <mergeCell ref="R149:T149"/>
-    <mergeCell ref="R12:T12"/>
-    <mergeCell ref="R49:T49"/>
-    <mergeCell ref="AE12:AF12"/>
-    <mergeCell ref="AJ132:AM132"/>
-    <mergeCell ref="AE132:AF132"/>
-    <mergeCell ref="AE82:AF82"/>
-    <mergeCell ref="R82:T82"/>
-    <mergeCell ref="R114:T114"/>
-    <mergeCell ref="R132:T132"/>
-    <mergeCell ref="AB49:AC49"/>
-    <mergeCell ref="B157:E157"/>
-    <mergeCell ref="AE157:AF157"/>
-    <mergeCell ref="AJ157:AM157"/>
-    <mergeCell ref="I157:O157"/>
-    <mergeCell ref="R157:T157"/>
-    <mergeCell ref="B161:E161"/>
-    <mergeCell ref="AE161:AF161"/>
-    <mergeCell ref="AJ161:AM161"/>
-    <mergeCell ref="I161:O161"/>
-    <mergeCell ref="R161:T161"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="I11:N11"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="I12:O12"/>
+    <mergeCell ref="B149:E149"/>
+    <mergeCell ref="B153:E153"/>
+    <mergeCell ref="I82:O82"/>
+    <mergeCell ref="I114:O114"/>
+    <mergeCell ref="I132:O132"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="44" fitToHeight="0" orientation="landscape" r:id="rId1"/>
